--- a/Analisi_vendite/Vendite_READY.xlsx
+++ b/Analisi_vendite/Vendite_READY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBook/Documents/University of Milan/Progetto Micro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_vendite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590C05A-ED74-7C4C-90F0-F05FA046FC4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7D4D3-BB02-4280-8DD9-B8FD99FF535E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
+    <workbookView xWindow="870" yWindow="390" windowWidth="28185" windowHeight="15600" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,16 +902,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A27" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,9 +931,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43101</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>94.4</v>
@@ -951,9 +951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43132</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>92.1</v>
@@ -971,9 +971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43160</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>109.6</v>
@@ -991,9 +991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43191</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>94.6</v>
@@ -1011,9 +1011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43221</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>102.9</v>
@@ -1031,9 +1031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43252</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>102.8</v>
@@ -1051,9 +1051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43282</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>104.8</v>
@@ -1071,9 +1071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43313</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>104.7</v>
@@ -1091,9 +1091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43344</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>101</v>
@@ -1111,9 +1111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43374</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>104.4</v>
@@ -1131,9 +1131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43405</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -1151,9 +1151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43435</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>119.2</v>
@@ -1171,9 +1171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43466</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>96.6</v>
@@ -1191,9 +1191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43497</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>92.2</v>
@@ -1211,9 +1211,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43525</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>102.4</v>
@@ -1231,9 +1231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43556</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>103</v>
@@ -1251,9 +1251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43586</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>101.8</v>
@@ -1271,9 +1271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43617</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>103.4</v>
@@ -1291,9 +1291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43647</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>108.2</v>
@@ -1311,9 +1311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43678</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>105.9</v>
@@ -1331,9 +1331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43709</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>100.7</v>
@@ -1351,9 +1351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43739</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>105.7</v>
@@ -1371,9 +1371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43770</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>102.1</v>
@@ -1391,9 +1391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43800</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>119.1</v>
@@ -1411,9 +1411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43831</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>98.5</v>
@@ -1431,9 +1431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43862</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>100.2</v>
@@ -1451,9 +1451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43891</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>108.4</v>
@@ -1471,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43922</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>108.1</v>
@@ -1491,9 +1491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43952</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>105.9</v>
@@ -1511,9 +1511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>104.3</v>
@@ -1531,9 +1531,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44013</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>106.9</v>
@@ -1551,9 +1551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44044</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>106.7</v>
@@ -1571,9 +1571,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44075</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>104.7</v>
@@ -1591,9 +1591,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44105</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>111.1</v>
@@ -1611,9 +1611,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44136</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>104.2</v>
@@ -1631,9 +1631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44166</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>127</v>
@@ -1653,5 +1653,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>